--- a/docs/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
+++ b/docs/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\JOB SEA- Iniciação doProjeto\JOB SEA-Projeto\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1B019-1DC4-451C-8390-D632B8E4A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6402E-E483-4ED5-8206-78301DDE4730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="263">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2142,9 +2142,6 @@
     <t>Revisão (versão)</t>
   </si>
   <si>
-    <t>Revision 4509</t>
-  </si>
-  <si>
     <t>Data Término</t>
   </si>
   <si>
@@ -2420,9 +2417,6 @@
     <t>Arquivos/Tabelas</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>Endereço</t>
   </si>
   <si>
@@ -2661,9 +2655,6 @@
     <t>Preparar Ambiente de Desenvolvimento</t>
   </si>
   <si>
-    <t>Modelar UC3</t>
-  </si>
-  <si>
     <t>Jornada de trabalho semanal por desenvolvedor</t>
   </si>
   <si>
@@ -2739,9 +2730,6 @@
     <t>Executar horas-extras</t>
   </si>
   <si>
-    <t>Tempo estimado para erros</t>
-  </si>
-  <si>
     <t>Perda de integrante da equipe</t>
   </si>
   <si>
@@ -2757,9 +2745,6 @@
     <t>Manter Projetos</t>
   </si>
   <si>
-    <t>Manter Clientes</t>
-  </si>
-  <si>
     <t>Especificar -Manter Usuários (escolhido para testar a arquitetura)</t>
   </si>
   <si>
@@ -2782,6 +2767,15 @@
   </si>
   <si>
     <t xml:space="preserve">Executar Testes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelar </t>
+  </si>
+  <si>
+    <t>Revisão (versão 01)</t>
+  </si>
+  <si>
+    <t>Usuário</t>
   </si>
 </sst>
 </file>
@@ -3507,7 +3501,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3940,6 +3934,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -4366,7 +4364,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18/nov</c:v>
+                  <c:v>14/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4405,28 +4403,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,7 +4477,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18/nov</c:v>
+                  <c:v>14/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -4518,37 +4516,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.9</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>23.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.699999999999996</c:v>
+                  <c:v>20.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.599999999999994</c:v>
+                  <c:v>17.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.499999999999993</c:v>
+                  <c:v>14.500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.399999999999991</c:v>
+                  <c:v>11.600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.299999999999992</c:v>
+                  <c:v>8.7000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1999999999999922</c:v>
+                  <c:v>5.8000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0999999999999925</c:v>
+                  <c:v>2.9000000000000044</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.1054273576010019E-15</c:v>
+                  <c:v>4.4408920985006262E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,18 +6527,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
+      <c r="A2" s="154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -6558,10 +6556,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,10 +6567,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="150" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" s="150" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6580,10 +6578,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="150" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="150" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6591,10 +6589,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6667,8 +6665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6687,92 +6685,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="F1" s="157" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="F1" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="F2" s="161" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
+      <c r="A2" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="F2" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="138" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" s="138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="163" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="131" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="129" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" s="129" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="K4" s="136" t="s">
         <v>216</v>
-      </c>
-      <c r="J4" s="131" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="136" t="s">
-        <v>218</v>
       </c>
       <c r="L4" s="131" t="s">
         <v>25</v>
@@ -6786,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="133">
         <v>5</v>
@@ -6795,23 +6793,23 @@
         <v>1</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H5" s="130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="130">
         <v>3</v>
       </c>
       <c r="J5" s="130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5" s="130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="132">
         <f>SUM(H5:K5)</f>
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -6822,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" s="133">
         <v>2</v>
@@ -6831,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H6" s="130">
         <v>5</v>
@@ -6858,32 +6856,20 @@
         <v>0</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="133">
         <v>5</v>
       </c>
-      <c r="F7" s="127">
-        <v>3</v>
-      </c>
-      <c r="G7" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="130">
-        <v>5</v>
-      </c>
-      <c r="I7" s="130">
-        <v>1</v>
-      </c>
-      <c r="J7" s="130">
-        <v>5</v>
-      </c>
-      <c r="K7" s="130">
-        <v>1</v>
-      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="132">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>SUM(H7:K7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -6894,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="133">
         <v>10</v>
@@ -6918,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="133">
         <v>3</v>
@@ -6942,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="133">
         <v>4</v>
@@ -6959,11 +6945,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="131">
         <f>SUM(D5:D10)</f>
         <v>29</v>
@@ -6987,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="133">
         <v>3</v>
@@ -7011,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D13" s="133">
         <v>6</v>
@@ -7035,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D14" s="133">
         <v>5</v>
@@ -7059,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D15" s="133">
         <v>5</v>
@@ -7083,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="151" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D16" s="133">
         <v>2</v>
@@ -7107,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D17" s="133">
         <v>10</v>
@@ -7131,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="133">
         <v>0</v>
@@ -7155,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D19" s="133">
         <v>10</v>
@@ -7179,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="133">
         <v>3</v>
@@ -7200,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D21" s="133">
         <v>4</v>
@@ -7214,11 +7200,11 @@
       <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="131">
         <f>SUM(D12:D21)</f>
         <v>48</v>
@@ -7239,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="133">
         <v>3</v>
@@ -7260,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D24" s="133">
         <v>5</v>
@@ -7273,8 +7259,8 @@
       <c r="B25" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="142" t="s">
-        <v>261</v>
+      <c r="C25" s="152" t="s">
+        <v>256</v>
       </c>
       <c r="D25" s="133">
         <v>2</v>
@@ -7287,8 +7273,8 @@
       <c r="B26" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="142" t="s">
-        <v>262</v>
+      <c r="C26" s="152" t="s">
+        <v>257</v>
       </c>
       <c r="D26" s="133">
         <v>3</v>
@@ -7301,8 +7287,8 @@
       <c r="B27" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="142" t="s">
-        <v>263</v>
+      <c r="C27" s="152" t="s">
+        <v>258</v>
       </c>
       <c r="D27" s="133">
         <v>1</v>
@@ -7315,8 +7301,8 @@
       <c r="B28" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="142" t="s">
-        <v>264</v>
+      <c r="C28" s="152" t="s">
+        <v>259</v>
       </c>
       <c r="D28" s="133">
         <v>1</v>
@@ -7330,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="141" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D29" s="133">
         <v>6</v>
@@ -7343,8 +7329,8 @@
       <c r="B30" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="142" t="s">
-        <v>224</v>
+      <c r="C30" s="152" t="s">
+        <v>260</v>
       </c>
       <c r="D30" s="133">
         <v>2</v>
@@ -7357,8 +7343,8 @@
       <c r="B31" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="142" t="s">
-        <v>259</v>
+      <c r="C31" s="152" t="s">
+        <v>254</v>
       </c>
       <c r="D31" s="133">
         <v>3</v>
@@ -7371,8 +7357,8 @@
       <c r="B32" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="142" t="s">
-        <v>263</v>
+      <c r="C32" s="152" t="s">
+        <v>258</v>
       </c>
       <c r="D32" s="133">
         <v>1</v>
@@ -7385,8 +7371,8 @@
       <c r="B33" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="142" t="s">
-        <v>264</v>
+      <c r="C33" s="152" t="s">
+        <v>259</v>
       </c>
       <c r="D33" s="133">
         <v>1</v>
@@ -7430,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="133">
         <v>3</v>
@@ -7444,18 +7430,18 @@
         <v>2</v>
       </c>
       <c r="C40" s="125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D40" s="133">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="131">
         <f>SUM(D23:D40)</f>
         <v>35</v>
@@ -7469,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="140" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D42" s="133">
         <v>3</v>
@@ -7483,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D43" s="133">
         <v>5</v>
@@ -7497,7 +7483,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="133">
         <v>5</v>
@@ -7511,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D45" s="133">
         <v>6</v>
@@ -7525,7 +7511,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D46" s="133">
         <v>0</v>
@@ -7539,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="140" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D47" s="133">
         <v>0</v>
@@ -7553,7 +7539,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="140" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D48" s="133">
         <v>5</v>
@@ -7567,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="140" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49" s="133">
         <v>4</v>
@@ -7581,16 +7567,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="125" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="133">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A51" s="154"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="156"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="157"/>
       <c r="D51" s="131">
         <f>SUM(D42:D50)</f>
         <v>31</v>
@@ -7627,7 +7613,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7638,23 +7624,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="A1" s="167" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="147">
         <f>'Backlog Produto'!$D$52</f>
@@ -7666,18 +7652,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="26">
         <v>0.3</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -7686,7 +7672,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" s="15">
         <v>8</v>
@@ -7697,7 +7683,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B8" s="145">
         <f>B6*B7*2</f>
@@ -7709,19 +7695,19 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="144">
         <f>B11/2</f>
         <v>3.8729166666666668</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="146">
         <f>B4+(B4*B5)</f>
@@ -7733,7 +7719,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="145">
         <f>B10/B8*2</f>
@@ -7745,7 +7731,7 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" s="144">
         <f>B11/4</f>
@@ -7756,11 +7742,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -7802,7 +7788,7 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" s="148">
         <f>B16+B18</f>
@@ -7831,7 +7817,7 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" s="148">
         <f>B19+B21</f>
@@ -7855,8 +7841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7873,43 +7859,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
+      <c r="A1" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="173"/>
+      <c r="A2" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="174"/>
       <c r="C2" s="82" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="170"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="83" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
+      <c r="G2" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
         <v>185.9</v>
@@ -7918,17 +7904,17 @@
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="85"/>
-      <c r="C3" s="174" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
+      <c r="C3" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="86"/>
-      <c r="G3" s="175" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177"/>
+      <c r="G3" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="177"/>
+      <c r="I3" s="178"/>
       <c r="J3" s="87"/>
       <c r="K3" s="88"/>
     </row>
@@ -7937,7 +7923,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>64</v>
@@ -7955,13 +7941,13 @@
         <v>64</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="89" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="89" t="s">
         <v>71</v>
@@ -7972,13 +7958,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C5" s="93">
         <v>44146</v>
       </c>
       <c r="D5" s="93">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E5" s="94">
         <v>29</v>
@@ -7987,20 +7973,19 @@
         <v>55</v>
       </c>
       <c r="G5" s="93">
-        <v>44153</v>
+        <v>44149</v>
       </c>
       <c r="H5" s="93">
-        <v>44159</v>
+        <v>44155</v>
       </c>
       <c r="I5" s="94">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J5" s="96">
-        <f>E5-I5</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5" s="97" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -8011,10 +7996,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="93">
-        <v>44160</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="98"/>
+        <v>44165</v>
+      </c>
+      <c r="D6" s="93">
+        <v>44180</v>
+      </c>
+      <c r="E6" s="98">
+        <v>48</v>
+      </c>
       <c r="F6" s="95" t="s">
         <v>54</v>
       </c>
@@ -8031,9 +8020,15 @@
       <c r="B7" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="93">
+        <v>44181</v>
+      </c>
+      <c r="D7" s="93">
+        <v>44206</v>
+      </c>
+      <c r="E7" s="98">
+        <v>35</v>
+      </c>
       <c r="F7" s="95" t="s">
         <v>54</v>
       </c>
@@ -8050,10 +8045,18 @@
       <c r="B8" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="95"/>
+      <c r="C8" s="93">
+        <v>44207</v>
+      </c>
+      <c r="D8" s="93">
+        <v>44228</v>
+      </c>
+      <c r="E8" s="98">
+        <v>31</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>54</v>
+      </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="I8" s="98"/>
@@ -8157,18 +8160,18 @@
       <c r="D15" s="31"/>
       <c r="E15" s="49">
         <f>SUM(E5:E14)</f>
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="49">
         <f>SUM(I5:I14)</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J15" s="50">
         <f>SUM(J5:J14)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -9066,159 +9069,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
+      <c r="A1" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9226,7 +9229,7 @@
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
       <c r="D31" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
@@ -9241,7 +9244,7 @@
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
       <c r="D32" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
@@ -9255,10 +9258,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="178" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="179"/>
+      <c r="D33" s="179" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="180"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9274,7 +9277,7 @@
         <v>4290</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
@@ -9291,7 +9294,7 @@
         <v>5082</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
@@ -9308,7 +9311,7 @@
         <v>4356</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="65"/>
       <c r="G36" s="65"/>
@@ -9325,7 +9328,7 @@
         <v>5929</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
@@ -9342,7 +9345,7 @@
         <v>5005</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="65"/>
       <c r="G38" s="65"/>
@@ -9359,7 +9362,7 @@
         <v>4225</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="65"/>
       <c r="G39" s="65"/>
@@ -9370,142 +9373,142 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+    </row>
+    <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
-    </row>
-    <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="187" t="s">
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="188"/>
+    </row>
+    <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="189" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+    </row>
+    <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="190" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
-    </row>
-    <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="188" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
-      <c r="J43" s="188"/>
-      <c r="K43" s="188"/>
-    </row>
-    <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="189" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="189"/>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="189"/>
-      <c r="G44" s="189"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="189"/>
-      <c r="K44" s="189"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="180" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
+      <c r="A46" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="182"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="183" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="182" t="s">
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+    </row>
+    <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="186"/>
+      <c r="B48" s="186" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="182"/>
-    </row>
-    <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185"/>
-      <c r="B48" s="185" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="185" t="s">
+      <c r="D48" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="185" t="s">
+      <c r="E48" s="186" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="185" t="s">
+      <c r="G48" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="192" t="s">
+      <c r="I48" s="194"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="194"/>
+    </row>
+    <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="186"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="H49" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
-    </row>
-    <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="185"/>
-      <c r="B49" s="185"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="183" t="s">
+      <c r="I49" s="185"/>
+      <c r="J49" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="184"/>
-      <c r="J49" s="73" t="s">
+      <c r="K49" s="73" t="s">
         <v>131</v>
-      </c>
-      <c r="K49" s="73" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="72" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
@@ -9513,31 +9516,31 @@
         <v>1</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="74">
         <v>44146</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="76" t="str">
         <f>IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="190"/>
-      <c r="I50" s="191"/>
+        <v>102</v>
+      </c>
+      <c r="H50" s="191"/>
+      <c r="I50" s="192"/>
       <c r="J50" s="79" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K50" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9545,31 +9548,31 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C51" s="74">
         <v>44146</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="76" t="str">
         <f t="shared" ref="F51:F58" si="0">IF(OR((CODE($D51)*CODE($E51))=$D$36,(CODE($D51)*CODE($E51))=$D$35),$D$15,IF(OR((CODE($D51)*CODE($E51))=$D$34,(CODE($D51)*CODE($E51))=$D$37),$D$16,IF(OR((CODE($D51)*CODE($E51))=$D$38,(CODE($D51)*CODE($E51))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H51" s="77"/>
       <c r="I51" s="78"/>
       <c r="J51" s="79" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9695,8 +9698,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="190"/>
-      <c r="I59" s="191"/>
+      <c r="H59" s="191"/>
+      <c r="I59" s="192"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9711,8 +9714,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="190"/>
-      <c r="I60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="192"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
@@ -9788,33 +9791,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="194" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
+      <c r="A1" s="195" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
-      <c r="C2" s="174" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="174"/>
+      <c r="C2" s="175" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="175"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9933,8 +9936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,7 +9959,7 @@
         <v>67</v>
       </c>
       <c r="C1" s="44">
-        <v>44153</v>
+        <v>44149</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>32</v>
@@ -9988,7 +9991,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="15">
         <v>5</v>
@@ -9999,35 +10002,23 @@
       <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="15">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15">
-        <v>2</v>
-      </c>
-      <c r="I2" s="15">
-        <v>2</v>
-      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
-        <v>3</v>
-      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="15">
         <v>2</v>
       </c>
@@ -10042,7 +10033,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="15">
         <v>5</v>
@@ -10064,14 +10055,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="15">
         <v>2</v>
       </c>
@@ -10087,16 +10076,14 @@
       <c r="H5" s="15">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
-        <v>2</v>
-      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -10106,11 +10093,9 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <v>5</v>
-      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -10118,7 +10103,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="15">
         <v>4</v>
@@ -10128,32 +10113,24 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15">
-        <v>5</v>
-      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="15">
-        <v>12</v>
-      </c>
+      <c r="A8" s="19"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="15">
-        <v>8</v>
-      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -10206,23 +10183,23 @@
       </c>
       <c r="B12" s="39">
         <f>SUM(B2:B11)</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" s="39">
         <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="39">
         <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" s="39">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F12" s="39">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
@@ -10230,11 +10207,11 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="39">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="J12" s="39" t="str">
         <f t="shared" si="0"/>
@@ -10256,47 +10233,47 @@
       </c>
       <c r="B13" s="36">
         <f>B12</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C13" s="37">
         <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>36.9</v>
+        <v>26.1</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
-        <v>32.799999999999997</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>28.699999999999996</v>
+        <v>20.300000000000004</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="1"/>
-        <v>24.599999999999994</v>
+        <v>17.400000000000006</v>
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>20.499999999999993</v>
+        <v>14.500000000000005</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="1"/>
-        <v>16.399999999999991</v>
+        <v>11.600000000000005</v>
       </c>
       <c r="I13" s="37">
         <f t="shared" si="1"/>
-        <v>12.299999999999992</v>
+        <v>8.7000000000000046</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="1"/>
-        <v>8.1999999999999922</v>
+        <v>5.8000000000000043</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="1"/>
-        <v>4.0999999999999925</v>
+        <v>2.9000000000000044</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>4.4408920985006262E-15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -10305,23 +10282,23 @@
       </c>
       <c r="B14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
@@ -10329,11 +10306,11 @@
       </c>
       <c r="H14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="I14" s="41">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="J14" s="41" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
@@ -10358,31 +10335,31 @@
       </c>
       <c r="C15" s="42">
         <f ca="1">100%-(C14/$B$13)</f>
-        <v>0.21951219512195119</v>
+        <v>0.10344827586206895</v>
       </c>
       <c r="D15" s="42">
         <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
-        <v>0.43902439024390238</v>
+        <v>0.41379310344827591</v>
       </c>
       <c r="E15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58536585365853666</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="F15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68292682926829262</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78048780487804881</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="H15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1219512195121952</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="I15" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6585365853658538</v>
+        <v>1</v>
       </c>
       <c r="J15" s="42" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -10430,7 +10407,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,167 +10429,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="202" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
+      <c r="A1" s="203" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
+      <c r="A2" s="204" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
     </row>
     <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="204" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
+      <c r="A3" s="205" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
     </row>
     <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="205" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
+      <c r="A4" s="206" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="206" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
+      <c r="A5" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
     </row>
     <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="201"/>
-      <c r="D7" s="200" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="201"/>
-      <c r="G7" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="M7" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" s="201"/>
+      <c r="A7" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="202"/>
+      <c r="D7" s="201" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="202"/>
+      <c r="G7" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="M7" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="202"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>144</v>
-      </c>
       <c r="M8" s="105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="102" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="102">
         <v>2</v>
@@ -10628,21 +10605,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N9" s="110"/>
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="106"/>
       <c r="G10" s="104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="102"/>
       <c r="I10" s="102"/>
@@ -10652,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N10" s="110"/>
     </row>
@@ -10661,15 +10638,15 @@
       <c r="B11" s="106"/>
       <c r="D11" s="102"/>
       <c r="E11" s="106"/>
-      <c r="G11" s="196" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
+      <c r="G11" s="197" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
       <c r="M11" s="108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11" s="110"/>
     </row>
@@ -10679,22 +10656,22 @@
       <c r="D12" s="102"/>
       <c r="E12" s="106"/>
       <c r="G12" s="104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>152</v>
-      </c>
       <c r="K12" s="105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M12" s="108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N12" s="110"/>
     </row>
@@ -10704,7 +10681,7 @@
       <c r="D13" s="102"/>
       <c r="E13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="102">
         <v>1</v>
@@ -10716,11 +10693,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N13" s="110"/>
       <c r="W13" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10729,7 +10706,7 @@
       <c r="D14" s="102"/>
       <c r="E14" s="106"/>
       <c r="G14" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -10739,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N14" s="110"/>
     </row>
@@ -10749,7 +10726,7 @@
       <c r="D15" s="102"/>
       <c r="E15" s="106"/>
       <c r="G15" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" s="102">
         <v>1</v>
@@ -10761,7 +10738,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N15" s="110"/>
     </row>
@@ -10770,18 +10747,18 @@
       <c r="B16" s="106"/>
       <c r="D16" s="102"/>
       <c r="E16" s="106"/>
-      <c r="G16" s="197" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="G16" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
       <c r="K16" s="107">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
       <c r="M16" s="108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N16" s="110"/>
     </row>
@@ -10791,7 +10768,7 @@
       <c r="D17" s="102"/>
       <c r="E17" s="106"/>
       <c r="M17" s="108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N17" s="110"/>
     </row>
@@ -10801,7 +10778,7 @@
       <c r="D18" s="102"/>
       <c r="E18" s="106"/>
       <c r="M18" s="108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N18" s="110"/>
     </row>
@@ -10811,7 +10788,7 @@
       <c r="D19" s="102"/>
       <c r="E19" s="106"/>
       <c r="M19" s="108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N19" s="110"/>
     </row>
@@ -10821,25 +10798,25 @@
       <c r="D20" s="102"/>
       <c r="E20" s="106"/>
       <c r="M20" s="108" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N20" s="110"/>
     </row>
     <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M21" s="108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N21" s="110"/>
     </row>
     <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M22" s="108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N22" s="110"/>
     </row>
     <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M23" s="109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N23" s="111">
         <f>SUM(N9:N22)</f>
@@ -10848,7 +10825,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N24" s="107">
         <f>(N23*0.01)+0.65</f>
@@ -10857,7 +10834,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N25" s="112">
         <f>K16*N24</f>
@@ -10866,7 +10843,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="109" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N26" s="113">
         <v>19</v>
@@ -10874,7 +10851,7 @@
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N27" s="115">
         <f>N25*N26</f>
@@ -10937,46 +10914,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="202" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
+      <c r="A1" s="203" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="E3" s="195" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="E3" s="196" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="134">
         <f>'#Estimativa-APF#'!$N$27</f>
@@ -10985,30 +10962,30 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="207" t="s">
+      <c r="F4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207" t="s">
+      <c r="G4" s="208"/>
+      <c r="H4" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="I4" s="208"/>
+      <c r="J4" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207" t="s">
+      <c r="K4" s="208"/>
+      <c r="L4" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="207"/>
+      <c r="M4" s="208"/>
       <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="26">
         <v>0.1</v>
@@ -11016,30 +10993,30 @@
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="207" t="s">
+      <c r="E5" s="210"/>
+      <c r="F5" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207" t="s">
+      <c r="G5" s="208"/>
+      <c r="H5" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207" t="s">
+      <c r="I5" s="208"/>
+      <c r="J5" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207" t="s">
+      <c r="K5" s="208"/>
+      <c r="L5" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="207"/>
+      <c r="M5" s="208"/>
       <c r="N5" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="135">
         <f>B4+(B4*B5)</f>
@@ -11048,7 +11025,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="209"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="116">
         <f>B6*G6</f>
         <v>9.509500000000001</v>
@@ -11359,7 +11336,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" s="52">
         <f>B11/B9</f>
@@ -11480,13 +11457,13 @@
       <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="209"/>
       <c r="E16" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="118">
         <f>F12+F15</f>

--- a/docs/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
+++ b/docs/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\JOB SEA- Iniciação doProjeto\JOB SEA-Projeto\Gerenciamento de Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\jobsea\docs\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA6402E-E483-4ED5-8206-78301DDE4730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7AF15-894A-409B-8989-3D8784293789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="266">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2776,6 +2776,15 @@
   </si>
   <si>
     <t>Usuário</t>
+  </si>
+  <si>
+    <t>Orientadora</t>
+  </si>
+  <si>
+    <t>Ana Paula da Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anapaula.darosa@ifsp.edu.br  </t>
   </si>
 </sst>
 </file>
@@ -4023,6 +4032,21 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4044,9 +4068,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4058,18 +4079,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6515,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6596,9 +6605,15 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -6655,9 +6670,10 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{8C601AB4-7E52-4CF7-862B-458BF48D3FCA}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{57230A33-ACB7-41AC-9B63-435CEE3AD9BD}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{8B199529-3A9A-4562-A8A9-9756814BF39D}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{E501F24A-0948-4114-9BF3-0926A6D5A52D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -9258,10 +9274,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="179" t="s">
+      <c r="D33" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="180"/>
+      <c r="E33" s="185"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9373,137 +9389,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="191"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="188"/>
-      <c r="K42" s="188"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="192"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="193"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="190" t="s">
+      <c r="A44" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
+      <c r="B44" s="194"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="181" t="s">
+      <c r="A46" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="182"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="182"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>123</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="183" t="s">
+      <c r="C47" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="183"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="188"/>
+      <c r="K47" s="188"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="186"/>
-      <c r="B48" s="186" t="s">
+      <c r="A48" s="181"/>
+      <c r="B48" s="181" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="186" t="s">
+      <c r="C48" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="186" t="s">
+      <c r="D48" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="186" t="s">
+      <c r="E48" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="186" t="s">
+      <c r="F48" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="186" t="s">
+      <c r="G48" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="193" t="s">
+      <c r="H48" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="194"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="186"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="184" t="s">
+      <c r="A49" s="181"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="I49" s="185"/>
+      <c r="I49" s="190"/>
       <c r="J49" s="73" t="s">
         <v>130</v>
       </c>
@@ -9534,8 +9550,8 @@
       <c r="G50" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="191"/>
-      <c r="I50" s="192"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
       <c r="J50" s="79" t="s">
         <v>246</v>
       </c>
@@ -9698,8 +9714,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="191"/>
-      <c r="I59" s="192"/>
+      <c r="H59" s="179"/>
+      <c r="I59" s="180"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9714,22 +9730,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="192"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="180"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -9741,6 +9748,15 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9936,7 +9952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
